--- a/simulation_data/one_step_algorithm/1s_error_level_15_percent_water_40.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_15_percent_water_40.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>89.95248924390781</v>
+        <v>90.36881416630864</v>
       </c>
       <c r="D2" t="n">
-        <v>3.963979220088332</v>
+        <v>3.637710548702674</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>88.57855977853563</v>
+        <v>88.67460584685088</v>
       </c>
       <c r="D3" t="n">
-        <v>3.667349975658418</v>
+        <v>3.541228219980917</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>86.7770270038295</v>
+        <v>87.70265564492165</v>
       </c>
       <c r="D4" t="n">
-        <v>3.67485869050496</v>
+        <v>3.731763839950012</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.61566533813567</v>
+        <v>86.9447242403762</v>
       </c>
       <c r="D5" t="n">
-        <v>3.553942288715909</v>
+        <v>4.049062901833683</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>86.1272189242632</v>
+        <v>86.05006129182861</v>
       </c>
       <c r="D6" t="n">
-        <v>3.531830687534143</v>
+        <v>3.734937895472249</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>85.08789417960843</v>
+        <v>84.48677645604076</v>
       </c>
       <c r="D7" t="n">
-        <v>3.63445809642147</v>
+        <v>3.734778266714238</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>83.19965778565307</v>
+        <v>83.39801582919587</v>
       </c>
       <c r="D8" t="n">
-        <v>3.505462673873698</v>
+        <v>3.90773296861228</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.93983456193568</v>
+        <v>83.13134422935801</v>
       </c>
       <c r="D9" t="n">
-        <v>4.004773260564793</v>
+        <v>3.68521739627683</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81.26173742024208</v>
+        <v>82.6659657051535</v>
       </c>
       <c r="D10" t="n">
-        <v>4.33535614687692</v>
+        <v>3.954147310155149</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>81.01639580559635</v>
+        <v>80.8752415979247</v>
       </c>
       <c r="D11" t="n">
-        <v>3.907254844911181</v>
+        <v>3.944637238502791</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.7099610565481</v>
+        <v>79.63645582283765</v>
       </c>
       <c r="D12" t="n">
-        <v>3.897499234747032</v>
+        <v>4.100430253916306</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.98333568697143</v>
+        <v>79.18072918560351</v>
       </c>
       <c r="D13" t="n">
-        <v>4.046466890125521</v>
+        <v>3.520734130898344</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>77.31348904216351</v>
+        <v>78.33263758442024</v>
       </c>
       <c r="D14" t="n">
-        <v>3.819305036038839</v>
+        <v>4.1357207644472</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>76.83336707904948</v>
+        <v>76.64472159373506</v>
       </c>
       <c r="D15" t="n">
-        <v>4.344341333107422</v>
+        <v>4.125023250892953</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>75.66817899470351</v>
+        <v>76.02146760106753</v>
       </c>
       <c r="D16" t="n">
-        <v>4.126946338759199</v>
+        <v>3.900313144328698</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>73.9752227570342</v>
+        <v>74.94088764014214</v>
       </c>
       <c r="D17" t="n">
-        <v>4.205917605293291</v>
+        <v>4.102015965648039</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>74.15192353878184</v>
+        <v>73.61212975628004</v>
       </c>
       <c r="D18" t="n">
-        <v>4.286183503304631</v>
+        <v>4.084291290516698</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.07680824841037</v>
+        <v>73.18412793907014</v>
       </c>
       <c r="D19" t="n">
-        <v>4.362293588327684</v>
+        <v>3.814491236781077</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>72.19356511077514</v>
+        <v>70.84492404340689</v>
       </c>
       <c r="D20" t="n">
-        <v>3.721942129830461</v>
+        <v>4.717337891868747</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.55913526975432</v>
+        <v>69.91702169785002</v>
       </c>
       <c r="D21" t="n">
-        <v>4.654895498926961</v>
+        <v>4.0971543182492</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>71.18350376314994</v>
+        <v>69.02029503974191</v>
       </c>
       <c r="D22" t="n">
-        <v>3.827542906998914</v>
+        <v>5.06937297830756</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>68.82311960796906</v>
+        <v>68.73095852065072</v>
       </c>
       <c r="D23" t="n">
-        <v>4.314585606304599</v>
+        <v>4.346213407044396</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.32466028277113</v>
+        <v>67.26590752225454</v>
       </c>
       <c r="D24" t="n">
-        <v>4.529368593352681</v>
+        <v>4.296048044318247</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>66.99469680057194</v>
+        <v>66.2020107086929</v>
       </c>
       <c r="D25" t="n">
-        <v>4.493019021238744</v>
+        <v>4.537722341090011</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.54041752922498</v>
+        <v>65.33014573352388</v>
       </c>
       <c r="D26" t="n">
-        <v>4.975502415721516</v>
+        <v>4.376775338300547</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>65.19835688676473</v>
+        <v>65.43737451288587</v>
       </c>
       <c r="D27" t="n">
-        <v>4.531870331291636</v>
+        <v>4.660735764021513</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>64.00197023258384</v>
+        <v>63.56807426564205</v>
       </c>
       <c r="D28" t="n">
-        <v>4.421958981648888</v>
+        <v>4.600908845985802</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>62.49627993883989</v>
+        <v>63.15551162317274</v>
       </c>
       <c r="D29" t="n">
-        <v>4.786834307922917</v>
+        <v>4.672194093502499</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>61.42216058285624</v>
+        <v>60.6673769677942</v>
       </c>
       <c r="D30" t="n">
-        <v>4.757226057042603</v>
+        <v>5.075701724529058</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.43953426735025</v>
+        <v>60.10577374841994</v>
       </c>
       <c r="D31" t="n">
-        <v>4.436890961527406</v>
+        <v>4.657333105529607</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>59.75748455045288</v>
+        <v>59.99392855520529</v>
       </c>
       <c r="D32" t="n">
-        <v>4.410196913942626</v>
+        <v>5.063930773898093</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.65558971071022</v>
+        <v>58.49928882787334</v>
       </c>
       <c r="D33" t="n">
-        <v>4.81266006952006</v>
+        <v>4.592205758809135</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>57.5804178763939</v>
+        <v>58.77816219765652</v>
       </c>
       <c r="D34" t="n">
-        <v>5.822226899991424</v>
+        <v>4.489733876466725</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.49820495647374</v>
+        <v>57.35117689175593</v>
       </c>
       <c r="D35" t="n">
-        <v>4.736644818501605</v>
+        <v>4.440742041967344</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.36614368231218</v>
+        <v>55.41061792055611</v>
       </c>
       <c r="D36" t="n">
-        <v>4.511877491025318</v>
+        <v>4.57548141870537</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.4471361199604</v>
+        <v>54.96610915214829</v>
       </c>
       <c r="D37" t="n">
-        <v>4.788854389562487</v>
+        <v>4.494862023698761</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.15598516541315</v>
+        <v>53.51062345209926</v>
       </c>
       <c r="D38" t="n">
-        <v>4.82799605366692</v>
+        <v>5.162727314470192</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.97734909431328</v>
+        <v>53.59792631224066</v>
       </c>
       <c r="D39" t="n">
-        <v>4.738145359195011</v>
+        <v>4.497449965767562</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.17298669587126</v>
+        <v>51.83153025312333</v>
       </c>
       <c r="D40" t="n">
-        <v>5.107012797320997</v>
+        <v>5.215964524549264</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.51085107760121</v>
+        <v>49.40878965935329</v>
       </c>
       <c r="D41" t="n">
-        <v>5.122784635384551</v>
+        <v>5.219077384239937</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.95626918303044</v>
+        <v>50.164928118181</v>
       </c>
       <c r="D42" t="n">
-        <v>4.688202894735718</v>
+        <v>5.477007481299682</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.54670212576344</v>
+        <v>48.40124330982202</v>
       </c>
       <c r="D43" t="n">
-        <v>4.616380138272123</v>
+        <v>5.424576518411247</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.5163804751971</v>
+        <v>47.36026314739799</v>
       </c>
       <c r="D44" t="n">
-        <v>4.791783600954016</v>
+        <v>4.916542444176007</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.65355198256468</v>
+        <v>46.72538605092053</v>
       </c>
       <c r="D45" t="n">
-        <v>5.132372669843561</v>
+        <v>5.695749771269672</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.62189019034427</v>
+        <v>45.94439075001779</v>
       </c>
       <c r="D46" t="n">
-        <v>5.808199643701141</v>
+        <v>5.877969932328625</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>44.5485550092769</v>
+        <v>45.37133633447027</v>
       </c>
       <c r="D47" t="n">
-        <v>5.43991462660535</v>
+        <v>4.716917269530691</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.42639344419743</v>
+        <v>44.6572780599307</v>
       </c>
       <c r="D48" t="n">
-        <v>5.114427205055764</v>
+        <v>5.05643805356229</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.76418263167445</v>
+        <v>42.47766732258584</v>
       </c>
       <c r="D49" t="n">
-        <v>5.36040856123625</v>
+        <v>5.427669641169257</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>40.65982122703348</v>
+        <v>41.86867528920837</v>
       </c>
       <c r="D50" t="n">
-        <v>5.581618332647817</v>
+        <v>5.260699488022035</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.86597074273347</v>
+        <v>40.56744317367006</v>
       </c>
       <c r="D51" t="n">
-        <v>4.982798181654276</v>
+        <v>5.426512040695743</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.05515593342676</v>
+        <v>39.97604147148697</v>
       </c>
       <c r="D52" t="n">
-        <v>5.562118247477803</v>
+        <v>5.072673540080078</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.87758433066081</v>
+        <v>37.99136247699304</v>
       </c>
       <c r="D53" t="n">
-        <v>6.273112830246435</v>
+        <v>5.624518106577375</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>36.80626061387163</v>
+        <v>37.57251239175476</v>
       </c>
       <c r="D54" t="n">
-        <v>6.858318214903909</v>
+        <v>5.622815907269976</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.28179422797209</v>
+        <v>37.2332242550551</v>
       </c>
       <c r="D55" t="n">
-        <v>5.782604742965292</v>
+        <v>5.926367024339134</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.3456147332074</v>
+        <v>36.71922519498533</v>
       </c>
       <c r="D56" t="n">
-        <v>5.387274401181509</v>
+        <v>5.38377815248871</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>33.69529880298433</v>
+        <v>34.77403986819379</v>
       </c>
       <c r="D57" t="n">
-        <v>5.269939415802175</v>
+        <v>5.766936620221136</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.29194676307834</v>
+        <v>34.43397646671465</v>
       </c>
       <c r="D58" t="n">
-        <v>5.341839752703571</v>
+        <v>5.572950033522929</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.45444828789744</v>
+        <v>31.89969335915136</v>
       </c>
       <c r="D59" t="n">
-        <v>5.660228288876129</v>
+        <v>5.842420671307912</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>30.33258553498658</v>
+        <v>32.02327262228893</v>
       </c>
       <c r="D60" t="n">
-        <v>6.291889771570106</v>
+        <v>5.360672189795575</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.3183446978122</v>
+        <v>30.33409745182513</v>
       </c>
       <c r="D61" t="n">
-        <v>6.503989699350084</v>
+        <v>5.362048166262888</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.44038721729466</v>
+        <v>29.19970954139848</v>
       </c>
       <c r="D62" t="n">
-        <v>6.24669176443934</v>
+        <v>5.971218275027884</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.19051350362973</v>
+        <v>27.91154587742619</v>
       </c>
       <c r="D63" t="n">
-        <v>5.75069239622282</v>
+        <v>6.468449115667302</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.42644518739478</v>
+        <v>28.3998280836908</v>
       </c>
       <c r="D64" t="n">
-        <v>5.704139602051469</v>
+        <v>5.493168375329166</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.65483888299288</v>
+        <v>25.54434321171272</v>
       </c>
       <c r="D65" t="n">
-        <v>6.025763229341028</v>
+        <v>6.431298756142969</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.36676210959482</v>
+        <v>26.00836267691695</v>
       </c>
       <c r="D66" t="n">
-        <v>6.154343071085607</v>
+        <v>5.579749481200526</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>23.91328775752365</v>
+        <v>25.1978145296993</v>
       </c>
       <c r="D67" t="n">
-        <v>6.220117379847161</v>
+        <v>6.359507935564603</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.14679998366158</v>
+        <v>23.39445529871765</v>
       </c>
       <c r="D68" t="n">
-        <v>5.686702084792711</v>
+        <v>6.25531039480592</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.32817506664569</v>
+        <v>24.74408123679515</v>
       </c>
       <c r="D69" t="n">
-        <v>5.93771403279264</v>
+        <v>5.031985311597039</v>
       </c>
     </row>
   </sheetData>
